--- a/data/trans_orig/P05A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>564029</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>532752</v>
+        <v>533856</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>595451</v>
+        <v>595642</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5471467191484261</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5168064027629152</v>
+        <v>0.5178768850285284</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5776281573812228</v>
+        <v>0.5778138236281487</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>669</v>
@@ -765,19 +765,19 @@
         <v>685218</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>650253</v>
+        <v>648945</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>723574</v>
+        <v>720593</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5214032591393634</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4947974666410989</v>
+        <v>0.4938016573107356</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5505892156921492</v>
+        <v>0.5483210533121976</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1233</v>
@@ -786,19 +786,19 @@
         <v>1249247</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1200248</v>
+        <v>1203709</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1294822</v>
+        <v>1299219</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5327198328913553</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5118247864394668</v>
+        <v>0.5133009819115537</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5521545965382247</v>
+        <v>0.5540293834578558</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>362400</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>330991</v>
+        <v>332966</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>393699</v>
+        <v>391042</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3515524327082888</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3210835174378865</v>
+        <v>0.3229999195435883</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3819154893335026</v>
+        <v>0.3793375072875065</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>444</v>
@@ -836,19 +836,19 @@
         <v>451780</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>417852</v>
+        <v>417753</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>488386</v>
+        <v>485847</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3437731102752899</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3179565292691806</v>
+        <v>0.3178809346405417</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3716272921737356</v>
+        <v>0.3696953225576646</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>812</v>
@@ -857,19 +857,19 @@
         <v>814180</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>769209</v>
+        <v>767395</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>858882</v>
+        <v>861750</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3471928244870767</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3280159619396283</v>
+        <v>0.3272424454962566</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3662555021092928</v>
+        <v>0.3674784943835309</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>104426</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>84988</v>
+        <v>87688</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>124277</v>
+        <v>125357</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1013008481432851</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08244416384369965</v>
+        <v>0.08506351561421042</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1205572240265963</v>
+        <v>0.1216047091780143</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>177</v>
@@ -907,19 +907,19 @@
         <v>177183</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>155582</v>
+        <v>153740</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>202562</v>
+        <v>202388</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1348236305853467</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1183867472474947</v>
+        <v>0.1169850587837814</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1541355876660989</v>
+        <v>0.1540031372131977</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>282</v>
@@ -928,19 +928,19 @@
         <v>281609</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>251851</v>
+        <v>252127</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>312650</v>
+        <v>312998</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1200873426215681</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1073973829866608</v>
+        <v>0.1075153936080156</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1333243681012566</v>
+        <v>0.1334725410472898</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>875212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>832836</v>
+        <v>835287</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>919242</v>
+        <v>918916</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5168334529263581</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4918091433809066</v>
+        <v>0.4932562437027904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5428338727320657</v>
+        <v>0.5426412459524855</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>758</v>
@@ -1053,19 +1053,19 @@
         <v>777504</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>739360</v>
+        <v>741647</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>818264</v>
+        <v>817199</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4906084393963963</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4665390665865469</v>
+        <v>0.4679823718851783</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5163277402381549</v>
+        <v>0.5156559431948604</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1602</v>
@@ -1074,19 +1074,19 @@
         <v>1652717</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1598355</v>
+        <v>1597533</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1708893</v>
+        <v>1704166</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5041554823550493</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4875725272586225</v>
+        <v>0.4873219368673598</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5212918861934194</v>
+        <v>0.5198497320156517</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>661659</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>624197</v>
+        <v>619570</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>702972</v>
+        <v>702230</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3907254053502299</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3686029071431987</v>
+        <v>0.3658706321354555</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4151215947999706</v>
+        <v>0.4146829861125014</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>583</v>
@@ -1124,19 +1124,19 @@
         <v>591864</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>553779</v>
+        <v>554220</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>628394</v>
+        <v>629758</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3734684208161047</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3494367775871595</v>
+        <v>0.3497149968565721</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3965189247550029</v>
+        <v>0.3973798199232331</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1241</v>
@@ -1145,19 +1145,19 @@
         <v>1253523</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1200719</v>
+        <v>1198988</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1311673</v>
+        <v>1307421</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3823828532358826</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3662752166652821</v>
+        <v>0.3657471399351031</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4001210734145307</v>
+        <v>0.3988242062753018</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>156541</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133775</v>
+        <v>133168</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181390</v>
+        <v>182151</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09244114172341203</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07899711534562207</v>
+        <v>0.07863865439463789</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1071148907163004</v>
+        <v>0.1075643120687013</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>210</v>
@@ -1195,19 +1195,19 @@
         <v>215408</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>189353</v>
+        <v>190047</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>243258</v>
+        <v>245335</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.135923139787499</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1194822920584734</v>
+        <v>0.1199203151792799</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1534970433665651</v>
+        <v>0.1548072055539485</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>357</v>
@@ -1216,19 +1216,19 @@
         <v>371949</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>341872</v>
+        <v>333457</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>416616</v>
+        <v>408070</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1134616644090682</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.104286975842788</v>
+        <v>0.1017199330761086</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1270873074274585</v>
+        <v>0.1244803584193761</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>292054</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>267919</v>
+        <v>266393</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>316152</v>
+        <v>314453</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5304633449816183</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4866256068839427</v>
+        <v>0.4838541044007584</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5742323171240216</v>
+        <v>0.5711465331958514</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>224</v>
@@ -1341,19 +1341,19 @@
         <v>234957</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>213827</v>
+        <v>212909</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>255664</v>
+        <v>256609</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4931804981555372</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4488274986965035</v>
+        <v>0.4469014184060494</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.536643708798656</v>
+        <v>0.5386286223462635</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>502</v>
@@ -1362,19 +1362,19 @@
         <v>527011</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>490526</v>
+        <v>494144</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>554881</v>
+        <v>557925</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5131679099592623</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4776412959565786</v>
+        <v>0.4811644210428046</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5403059656708971</v>
+        <v>0.5432700610208</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>192416</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>170313</v>
+        <v>169456</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>214256</v>
+        <v>216070</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3494891357537509</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3093433924865305</v>
+        <v>0.3077855108474262</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3891565094755784</v>
+        <v>0.3924516605089072</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -1412,19 +1412,19 @@
         <v>178124</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>157822</v>
+        <v>154298</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>199795</v>
+        <v>199069</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3738856113607195</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3312719397215774</v>
+        <v>0.3238741601089729</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4193739099466129</v>
+        <v>0.4178498147241139</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>354</v>
@@ -1433,19 +1433,19 @@
         <v>370539</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>340089</v>
+        <v>342686</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>400324</v>
+        <v>402904</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3608066099960784</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3311560362974399</v>
+        <v>0.3336847885602256</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3898085998917212</v>
+        <v>0.3923211830274415</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>66094</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52565</v>
+        <v>50526</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82132</v>
+        <v>81701</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1200475192646309</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09547413037152221</v>
+        <v>0.09177190512332059</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1491772867384004</v>
+        <v>0.1483946556541244</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -1483,19 +1483,19 @@
         <v>63331</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48136</v>
+        <v>49071</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79088</v>
+        <v>80768</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1329338904837434</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1010389474495785</v>
+        <v>0.1030005529703811</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1660074695375869</v>
+        <v>0.1695342354551445</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>122</v>
@@ -1504,19 +1504,19 @@
         <v>129425</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>109704</v>
+        <v>106937</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154245</v>
+        <v>152632</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1260254800446592</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1068229202319184</v>
+        <v>0.1041286133424955</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1501933820373137</v>
+        <v>0.1486229397675422</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>1731295</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1674682</v>
+        <v>1670771</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1787761</v>
+        <v>1788479</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5286669484853916</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5113797147236695</v>
+        <v>0.5101854471927798</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5459093104764847</v>
+        <v>0.5461285717405494</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1651</v>
@@ -1629,19 +1629,19 @@
         <v>1697680</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1638267</v>
+        <v>1641902</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1756870</v>
+        <v>1759055</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5029612582841534</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4853593426061268</v>
+        <v>0.4864363435942575</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5204972410450127</v>
+        <v>0.5211445974771479</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3337</v>
@@ -1650,19 +1650,19 @@
         <v>3428975</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3348751</v>
+        <v>3348925</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3512741</v>
+        <v>3514371</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5156197933673428</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5035564592537412</v>
+        <v>0.5035826410248269</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5282158639285703</v>
+        <v>0.5284609353530121</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>1216475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1161800</v>
+        <v>1161958</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1273938</v>
+        <v>1278146</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.371461866574323</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3547663527405983</v>
+        <v>0.3548147175984916</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3890088784584967</v>
+        <v>0.3902938038530459</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1196</v>
@@ -1700,19 +1700,19 @@
         <v>1221767</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1166360</v>
+        <v>1163433</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1276382</v>
+        <v>1278604</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3619656029574606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3455503227028148</v>
+        <v>0.3446832255319862</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3781458032884249</v>
+        <v>0.3788043208674035</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2407</v>
@@ -1721,19 +1721,19 @@
         <v>2438242</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2359170</v>
+        <v>2358123</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2518304</v>
+        <v>2517305</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3666419522486956</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3547518038407569</v>
+        <v>0.3545942328431977</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3786808785342629</v>
+        <v>0.3785306697036677</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>327061</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>292184</v>
+        <v>294184</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>362931</v>
+        <v>365760</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09987118494028532</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08922108976338219</v>
+        <v>0.0898317452653298</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1108242922296056</v>
+        <v>0.1116882689373163</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>446</v>
@@ -1771,19 +1771,19 @@
         <v>455922</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>417652</v>
+        <v>417272</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>495313</v>
+        <v>496814</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1350731387583861</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1237351025064145</v>
+        <v>0.1236225275794557</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1467432686778963</v>
+        <v>0.1471879779361312</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>761</v>
@@ -1792,19 +1792,19 @@
         <v>782983</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>727906</v>
+        <v>728397</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>831600</v>
+        <v>836033</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1177382543839616</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1094562329402586</v>
+        <v>0.1095300648116011</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1250488899648396</v>
+        <v>0.1257155172976328</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>691970</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>660542</v>
+        <v>661560</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>721143</v>
+        <v>720712</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7108246857965749</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6785401100656093</v>
+        <v>0.679586005565574</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.740792531792377</v>
+        <v>0.7403498477228728</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>882</v>
@@ -2156,19 +2156,19 @@
         <v>946185</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>911544</v>
+        <v>909447</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>980936</v>
+        <v>979422</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7077771099734161</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6818644920371525</v>
+        <v>0.6802963125724274</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7337724774492649</v>
+        <v>0.7326399488105449</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1528</v>
@@ -2177,19 +2177,19 @@
         <v>1638156</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1593864</v>
+        <v>1593083</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1683976</v>
+        <v>1685131</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7090612374122204</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6898902452869876</v>
+        <v>0.6895522021310156</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7288942924740841</v>
+        <v>0.7293940864749261</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>218119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>193477</v>
+        <v>192241</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>247576</v>
+        <v>245498</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2240618170801859</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1987483814975672</v>
+        <v>0.1974790920281699</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2543221854332091</v>
+        <v>0.2521872309943096</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>282</v>
@@ -2227,19 +2227,19 @@
         <v>301875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269763</v>
+        <v>271589</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>332760</v>
+        <v>335052</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2258120441636071</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2017916832081438</v>
+        <v>0.203157786597899</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2489150442765725</v>
+        <v>0.2506300140216267</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>483</v>
@@ -2248,19 +2248,19 @@
         <v>519993</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>476681</v>
+        <v>479742</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>560766</v>
+        <v>561957</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2250745679686325</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2063271457558543</v>
+        <v>0.2076521228291713</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2427224866602732</v>
+        <v>0.24323795750885</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>63386</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48400</v>
+        <v>48117</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80501</v>
+        <v>81618</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06511349712323924</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04971917546438983</v>
+        <v>0.04942832800991056</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08269414347741269</v>
+        <v>0.08384233773019441</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>82</v>
@@ -2298,19 +2298,19 @@
         <v>88781</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>71883</v>
+        <v>70452</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>109535</v>
+        <v>106517</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06641084586297677</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05377113605774156</v>
+        <v>0.05270066420173464</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08193584902704436</v>
+        <v>0.07967799399027393</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>142</v>
@@ -2319,19 +2319,19 @@
         <v>152167</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>129994</v>
+        <v>130183</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>176323</v>
+        <v>179151</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06586419461914705</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05626664232571175</v>
+        <v>0.05634854518595675</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07632004628318387</v>
+        <v>0.07754376025114428</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>1339435</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1297135</v>
+        <v>1299557</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1378393</v>
+        <v>1380775</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.683544406878021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6619576144787566</v>
+        <v>0.663193558543536</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.703425325130026</v>
+        <v>0.7046409601808257</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1141</v>
@@ -2444,19 +2444,19 @@
         <v>1226046</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1184896</v>
+        <v>1186130</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1265349</v>
+        <v>1261483</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6994352143217137</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6759599984968205</v>
+        <v>0.676664209512016</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.721856845768498</v>
+        <v>0.7196514017261459</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2401</v>
@@ -2465,19 +2465,19 @@
         <v>2565480</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2505670</v>
+        <v>2508700</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2622346</v>
+        <v>2630187</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6910475681585609</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6749368626397941</v>
+        <v>0.6757530366968529</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.706365241678286</v>
+        <v>0.7084772884604138</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>505086</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>466175</v>
+        <v>466889</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>546397</v>
+        <v>544415</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2577567172700868</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2378997730269078</v>
+        <v>0.2382638617420114</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.278838836507471</v>
+        <v>0.277827365909752</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>384</v>
@@ -2515,19 +2515,19 @@
         <v>411724</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>376247</v>
+        <v>378697</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>448691</v>
+        <v>453524</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2348803710323504</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.214641408838846</v>
+        <v>0.2160391203669817</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2559693344720302</v>
+        <v>0.2587266907328147</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>868</v>
@@ -2536,19 +2536,19 @@
         <v>916809</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>866503</v>
+        <v>858922</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>974538</v>
+        <v>970107</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2469551946955157</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2334045008619631</v>
+        <v>0.2313624181458988</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2625051594157617</v>
+        <v>0.2613117380264531</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>115023</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>96370</v>
+        <v>95364</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>139048</v>
+        <v>139574</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05869887585189227</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04917982304285408</v>
+        <v>0.04866656575532605</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07095918278789705</v>
+        <v>0.0712279161517293</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -2586,19 +2586,19 @@
         <v>115139</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96059</v>
+        <v>96092</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>140419</v>
+        <v>139303</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06568441464593584</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05479969721193097</v>
+        <v>0.05481869497615161</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08010654841746646</v>
+        <v>0.07946980505303669</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>214</v>
@@ -2607,19 +2607,19 @@
         <v>230162</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>201356</v>
+        <v>203235</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>264442</v>
+        <v>262319</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06199723714592338</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05423789790841292</v>
+        <v>0.05474413275390988</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07123122010721124</v>
+        <v>0.07065918090859388</v>
       </c>
     </row>
     <row r="11">
@@ -2711,19 +2711,19 @@
         <v>305396</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>282391</v>
+        <v>283106</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>327414</v>
+        <v>328215</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6346796314509264</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5868698539804109</v>
+        <v>0.5883574823520629</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6804379334405894</v>
+        <v>0.682102383012366</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>286</v>
@@ -2732,19 +2732,19 @@
         <v>320396</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>300690</v>
+        <v>300347</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>342547</v>
+        <v>341500</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6985931228496661</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6556245585645876</v>
+        <v>0.6548765131510017</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7468892611908801</v>
+        <v>0.7446083456204379</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>564</v>
@@ -2753,19 +2753,19 @@
         <v>625793</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>591342</v>
+        <v>594196</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>652754</v>
+        <v>656018</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6658695903900698</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6292121438682737</v>
+        <v>0.6322490303075389</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.694557293190912</v>
+        <v>0.6980303722318211</v>
       </c>
     </row>
     <row r="13">
@@ -2782,19 +2782,19 @@
         <v>138896</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>118727</v>
+        <v>117752</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>160924</v>
+        <v>159432</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2886570381845218</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2467409095823555</v>
+        <v>0.2447136598859302</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3344356587329881</v>
+        <v>0.3313357100868483</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -2803,19 +2803,19 @@
         <v>106309</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>87207</v>
+        <v>88055</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>125895</v>
+        <v>125803</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2317966360520901</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1901471501347784</v>
+        <v>0.1919961484229366</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2745013045293669</v>
+        <v>0.2743008652415592</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>224</v>
@@ -2824,19 +2824,19 @@
         <v>245206</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>219027</v>
+        <v>217408</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>276427</v>
+        <v>276059</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2609090061343012</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2330536975923176</v>
+        <v>0.2313309321956062</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2941293767164713</v>
+        <v>0.2937385033793408</v>
       </c>
     </row>
     <row r="14">
@@ -2853,19 +2853,19 @@
         <v>36889</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26236</v>
+        <v>25303</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52086</v>
+        <v>51942</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07666333036455179</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05452510040970815</v>
+        <v>0.05258574157921349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1082454283222447</v>
+        <v>0.1079470446420356</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -2874,19 +2874,19 @@
         <v>31925</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22131</v>
+        <v>22268</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44307</v>
+        <v>44334</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06961024109824382</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04825467680153127</v>
+        <v>0.04855324098694522</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09660715717838612</v>
+        <v>0.09666560819177113</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>62</v>
@@ -2895,19 +2895,19 @@
         <v>68814</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>54375</v>
+        <v>53848</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>87084</v>
+        <v>86469</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.073221403475629</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05785765569362059</v>
+        <v>0.05729661333962756</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09266129498394148</v>
+        <v>0.09200712220167323</v>
       </c>
     </row>
     <row r="15">
@@ -2999,19 +2999,19 @@
         <v>2336801</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2282185</v>
+        <v>2276838</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2392923</v>
+        <v>2388653</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6844359350685107</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6684392144700781</v>
+        <v>0.6668729212166197</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.700873581429323</v>
+        <v>0.6996229829358576</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2309</v>
@@ -3020,19 +3020,19 @@
         <v>2492627</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2439029</v>
+        <v>2431166</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2549790</v>
+        <v>2545520</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7024691554261167</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6873642380500546</v>
+        <v>0.6851482131745751</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7185789055631171</v>
+        <v>0.7173755219891831</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4493</v>
@@ -3041,19 +3041,19 @@
         <v>4829429</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4750301</v>
+        <v>4743148</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4905251</v>
+        <v>4906544</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6936263085545201</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6822616728292612</v>
+        <v>0.6812342732183672</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7045163546873749</v>
+        <v>0.7047019513629251</v>
       </c>
     </row>
     <row r="17">
@@ -3070,19 +3070,19 @@
         <v>862100</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>809499</v>
+        <v>815149</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>914101</v>
+        <v>922292</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2525043911590337</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2370975838470795</v>
+        <v>0.2387525705861527</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2677350340530576</v>
+        <v>0.2701342781906285</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>762</v>
@@ -3091,19 +3091,19 @@
         <v>819907</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>766182</v>
+        <v>767151</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>871275</v>
+        <v>869553</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2310653328845853</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.215924410152</v>
+        <v>0.216197511527754</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2455415904806261</v>
+        <v>0.2450564368005997</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1575</v>
@@ -3112,19 +3112,19 @@
         <v>1682008</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1613520</v>
+        <v>1606239</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1755494</v>
+        <v>1761889</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2415782809677724</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2317416188079585</v>
+        <v>0.2306959632195848</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2521327430089483</v>
+        <v>0.2530510984021368</v>
       </c>
     </row>
     <row r="18">
@@ -3141,19 +3141,19 @@
         <v>215298</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>188648</v>
+        <v>185275</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>245258</v>
+        <v>244805</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06305967377245551</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05525396181774776</v>
+        <v>0.05426606560184268</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07183483549789398</v>
+        <v>0.07170199744369374</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>218</v>
@@ -3162,19 +3162,19 @@
         <v>235845</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>206192</v>
+        <v>206556</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>268333</v>
+        <v>271399</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06646551168929798</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05810871186059466</v>
+        <v>0.05821125807064646</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07562130548847237</v>
+        <v>0.07648531685144769</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>418</v>
@@ -3183,19 +3183,19 @@
         <v>451143</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>412323</v>
+        <v>411197</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>495172</v>
+        <v>497993</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06479541047770751</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05921987269601254</v>
+        <v>0.05905812510525425</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07111905165915985</v>
+        <v>0.07152418241814876</v>
       </c>
     </row>
     <row r="19">
@@ -3526,19 +3526,19 @@
         <v>529653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>504510</v>
+        <v>501652</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>554322</v>
+        <v>553216</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7021345752737164</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6688034848017037</v>
+        <v>0.6650149354318498</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7348368381664839</v>
+        <v>0.7333709861847563</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>653</v>
@@ -3547,19 +3547,19 @@
         <v>723899</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>691904</v>
+        <v>694142</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>753196</v>
+        <v>751478</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7301920720370252</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6979195423986619</v>
+        <v>0.7001769006003997</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7597445053775392</v>
+        <v>0.758011152136536</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1189</v>
@@ -3568,19 +3568,19 @@
         <v>1253552</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1214443</v>
+        <v>1216495</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1290732</v>
+        <v>1291446</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7180681403538921</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6956655576906428</v>
+        <v>0.6968408593982445</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7393659506989095</v>
+        <v>0.7397747837559296</v>
       </c>
     </row>
     <row r="5">
@@ -3597,19 +3597,19 @@
         <v>177273</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>155713</v>
+        <v>155735</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>202271</v>
+        <v>200853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2350018718360273</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2064209440543628</v>
+        <v>0.2064501071272828</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2681403776761582</v>
+        <v>0.2662608847122641</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -3618,19 +3618,19 @@
         <v>207491</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>182137</v>
+        <v>181744</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>234964</v>
+        <v>235971</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2092951238829196</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1837207185655656</v>
+        <v>0.1833240945104284</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2370066315587336</v>
+        <v>0.238022416147287</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>364</v>
@@ -3639,19 +3639,19 @@
         <v>384764</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>351632</v>
+        <v>350215</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>422711</v>
+        <v>422389</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.220403272931575</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2014244157422972</v>
+        <v>0.2006125487023687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2421400555944918</v>
+        <v>0.2419555056871367</v>
       </c>
     </row>
     <row r="6">
@@ -3668,19 +3668,19 @@
         <v>47421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35513</v>
+        <v>35778</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>61472</v>
+        <v>61957</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06286355289025634</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04707794377670377</v>
+        <v>0.04742870425926661</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08149048982180601</v>
+        <v>0.08213332734453248</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>52</v>
@@ -3689,19 +3689,19 @@
         <v>59991</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44043</v>
+        <v>45646</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>76360</v>
+        <v>78223</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06051280408005522</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04442581694617823</v>
+        <v>0.0460427953022782</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07702366124260421</v>
+        <v>0.07890335485787663</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>98</v>
@@ -3710,19 +3710,19 @@
         <v>107412</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>89637</v>
+        <v>87889</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>130249</v>
+        <v>128340</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06152858671453297</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05134663397935483</v>
+        <v>0.05034511449152476</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07460989934077628</v>
+        <v>0.0735166530891711</v>
       </c>
     </row>
     <row r="7">
@@ -3814,19 +3814,19 @@
         <v>1476808</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1433519</v>
+        <v>1432888</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1518112</v>
+        <v>1515528</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7120482143162248</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6911763669487359</v>
+        <v>0.6908720926228252</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7319629527768062</v>
+        <v>0.7307169991440892</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1357</v>
@@ -3835,19 +3835,19 @@
         <v>1408621</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1369877</v>
+        <v>1369759</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1449564</v>
+        <v>1453104</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7090979475913606</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.68959444464105</v>
+        <v>0.6895347130411076</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7297088128859844</v>
+        <v>0.731490869524702</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2747</v>
@@ -3856,19 +3856,19 @@
         <v>2885430</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2824095</v>
+        <v>2826464</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2940132</v>
+        <v>2950715</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7106048799345654</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6954998045497733</v>
+        <v>0.6960831930203074</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.724076673905657</v>
+        <v>0.7266828765007302</v>
       </c>
     </row>
     <row r="9">
@@ -3885,19 +3885,19 @@
         <v>499778</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>459668</v>
+        <v>463491</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>540499</v>
+        <v>541190</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2409699865589995</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.221630458793712</v>
+        <v>0.2234737837603068</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2606034169281524</v>
+        <v>0.2609368236046796</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>434</v>
@@ -3906,19 +3906,19 @@
         <v>453574</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>417483</v>
+        <v>416792</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>495312</v>
+        <v>491353</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2283283101387057</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2101601569649852</v>
+        <v>0.2098127576536868</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2493391711207093</v>
+        <v>0.2473467010249536</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>904</v>
@@ -3927,19 +3927,19 @@
         <v>953352</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>902839</v>
+        <v>897031</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1008053</v>
+        <v>1010394</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2347854046479987</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2223453863830868</v>
+        <v>0.2209149070509084</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2482567007785164</v>
+        <v>0.2488332578332071</v>
       </c>
     </row>
     <row r="10">
@@ -3956,19 +3956,19 @@
         <v>97442</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79482</v>
+        <v>78396</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119961</v>
+        <v>119130</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04698179912477564</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03832253893567011</v>
+        <v>0.03779874573723067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05783968753144249</v>
+        <v>0.05743883179853797</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -3977,19 +3977,19 @@
         <v>124303</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103446</v>
+        <v>104265</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>147780</v>
+        <v>146072</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06257374226993367</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05207434851210661</v>
+        <v>0.05248675353771757</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07439222634781328</v>
+        <v>0.07353247742248861</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>206</v>
@@ -3998,19 +3998,19 @@
         <v>221744</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>193721</v>
+        <v>194031</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>253779</v>
+        <v>253539</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05460971541743592</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04770828365675977</v>
+        <v>0.04778481840439413</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06249897374362089</v>
+        <v>0.06244001647615049</v>
       </c>
     </row>
     <row r="11">
@@ -4102,19 +4102,19 @@
         <v>395211</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>372737</v>
+        <v>372915</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>415818</v>
+        <v>419072</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7226574143324451</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6815628235409177</v>
+        <v>0.68188877360625</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7603376390010311</v>
+        <v>0.7662881043523289</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>368</v>
@@ -4123,19 +4123,19 @@
         <v>383117</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>362343</v>
+        <v>362839</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>402930</v>
+        <v>406260</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6990351292762219</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6611310905727066</v>
+        <v>0.6620368948168555</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7351869508494273</v>
+        <v>0.7412631806239277</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>732</v>
@@ -4144,19 +4144,19 @@
         <v>778328</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>747840</v>
+        <v>741349</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>807996</v>
+        <v>807042</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7108335593299304</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6829897958242871</v>
+        <v>0.6770613026410278</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7379285039486014</v>
+        <v>0.737057200986781</v>
       </c>
     </row>
     <row r="13">
@@ -4173,19 +4173,19 @@
         <v>124503</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105822</v>
+        <v>102602</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144367</v>
+        <v>144676</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2276571835972251</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1934984947822119</v>
+        <v>0.1876107898612792</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2639800466522904</v>
+        <v>0.2645455073612904</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -4194,19 +4194,19 @@
         <v>118950</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99907</v>
+        <v>99355</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>138325</v>
+        <v>137638</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2170367108967736</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1822909038403551</v>
+        <v>0.1812830965360296</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2523872172711217</v>
+        <v>0.2511344021859199</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>226</v>
@@ -4215,19 +4215,19 @@
         <v>243453</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>215941</v>
+        <v>218642</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>272401</v>
+        <v>276251</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2223412317759079</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1972155558508306</v>
+        <v>0.1996820959166399</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2487789160491928</v>
+        <v>0.2522954586493361</v>
       </c>
     </row>
     <row r="14">
@@ -4244,19 +4244,19 @@
         <v>27172</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17868</v>
+        <v>17390</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39723</v>
+        <v>39451</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04968540207032979</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03267256643183569</v>
+        <v>0.03179730787161743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07263480267053955</v>
+        <v>0.07213761688704956</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -4265,19 +4265,19 @@
         <v>45998</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34083</v>
+        <v>32810</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60902</v>
+        <v>61636</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08392815982700448</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06218816124092116</v>
+        <v>0.05986548363070268</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1111218168176027</v>
+        <v>0.1124616768184375</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>68</v>
@@ -4286,19 +4286,19 @@
         <v>73170</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>58183</v>
+        <v>57309</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>91266</v>
+        <v>92413</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06682520889416167</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05313729880611687</v>
+        <v>0.05233917738027535</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08335139640640334</v>
+        <v>0.08439912324493754</v>
       </c>
     </row>
     <row r="15">
@@ -4390,19 +4390,19 @@
         <v>2401672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2346932</v>
+        <v>2352489</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2458457</v>
+        <v>2459638</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7115515724278354</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.695333570212279</v>
+        <v>0.696979860089833</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7283752436935514</v>
+        <v>0.7287253339816409</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2378</v>
@@ -4411,19 +4411,19 @@
         <v>2515636</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2458643</v>
+        <v>2461652</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2570147</v>
+        <v>2572645</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.713464789700024</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6973007965226088</v>
+        <v>0.6981543217149279</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7289247497018606</v>
+        <v>0.7296333199183</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4668</v>
@@ -4432,19 +4432,19 @@
         <v>4917308</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4843603</v>
+        <v>4848452</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5001587</v>
+        <v>4993147</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7125290676864332</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7018489661728063</v>
+        <v>0.7025516306155433</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7247412227323784</v>
+        <v>0.7235182504320432</v>
       </c>
     </row>
     <row r="17">
@@ -4461,19 +4461,19 @@
         <v>801554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>749957</v>
+        <v>751097</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>852568</v>
+        <v>846287</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.237479111357506</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.222192275784333</v>
+        <v>0.2225301772698429</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2525930964534766</v>
+        <v>0.2507323019613659</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>731</v>
@@ -4482,19 +4482,19 @@
         <v>780015</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>733681</v>
+        <v>728433</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>832221</v>
+        <v>831714</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2212216535436116</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2080808186797231</v>
+        <v>0.2065924277401875</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2360278481588688</v>
+        <v>0.2358842460527472</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1494</v>
@@ -4503,19 +4503,19 @@
         <v>1581569</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1504202</v>
+        <v>1514336</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1652440</v>
+        <v>1649076</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2291728995325645</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2179621871211548</v>
+        <v>0.2194307389453223</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2394423151675398</v>
+        <v>0.2389548185829529</v>
       </c>
     </row>
     <row r="18">
@@ -4532,19 +4532,19 @@
         <v>172035</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>148101</v>
+        <v>147073</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>198491</v>
+        <v>200999</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05096931621465856</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04387851494170102</v>
+        <v>0.04357390341596819</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05880761086299573</v>
+        <v>0.0595506175902761</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>212</v>
@@ -4553,19 +4553,19 @@
         <v>230292</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>199347</v>
+        <v>199949</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>264050</v>
+        <v>258506</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06531355675636427</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05653734601460868</v>
+        <v>0.05670806832602145</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07488788264862642</v>
+        <v>0.07331555433652207</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>372</v>
@@ -4574,19 +4574,19 @@
         <v>402327</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>362977</v>
+        <v>360732</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>442915</v>
+        <v>441068</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05829803278100231</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05259620424776675</v>
+        <v>0.0522708518045485</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06417941709842016</v>
+        <v>0.06391181160989355</v>
       </c>
     </row>
     <row r="19">
@@ -4917,19 +4917,19 @@
         <v>454443</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>434894</v>
+        <v>432343</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>473139</v>
+        <v>471626</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7881458650534645</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7542405023999471</v>
+        <v>0.7498172003542845</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8205703806662998</v>
+        <v>0.817945752809056</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1147</v>
@@ -4938,19 +4938,19 @@
         <v>645222</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>624940</v>
+        <v>625453</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>662584</v>
+        <v>666229</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7855506630403157</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7608567539019219</v>
+        <v>0.7614816213428618</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8066878071741151</v>
+        <v>0.8111256429682294</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1694</v>
@@ -4959,19 +4959,19 @@
         <v>1099666</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1073054</v>
+        <v>1071618</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1126101</v>
+        <v>1127060</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7866210714061378</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7675850351079946</v>
+        <v>0.7665577526412417</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8055308976106144</v>
+        <v>0.8062173447500951</v>
       </c>
     </row>
     <row r="5">
@@ -4988,19 +4988,19 @@
         <v>81764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65777</v>
+        <v>66641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98468</v>
+        <v>98924</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.141803939372128</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1140776734345122</v>
+        <v>0.1155754096498707</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1707738666695247</v>
+        <v>0.1715653223754128</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>203</v>
@@ -5009,19 +5009,19 @@
         <v>125455</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110679</v>
+        <v>109825</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>142461</v>
+        <v>143456</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1527402414697313</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1347498927832585</v>
+        <v>0.133710746850513</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1734450197868699</v>
+        <v>0.1746559416165278</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>299</v>
@@ -5030,19 +5030,19 @@
         <v>207219</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>185458</v>
+        <v>184933</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>230612</v>
+        <v>229320</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1482294907855369</v>
+        <v>0.148229490785537</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.132662988585423</v>
+        <v>0.1322878633797479</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1649633455894973</v>
+        <v>0.1640391748771973</v>
       </c>
     </row>
     <row r="6">
@@ -5059,19 +5059,19 @@
         <v>40391</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29622</v>
+        <v>29839</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>55341</v>
+        <v>53706</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.07005019557440771</v>
+        <v>0.07005019557440773</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05137296561457192</v>
+        <v>0.05175009273786694</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09597864713116731</v>
+        <v>0.09314324523644064</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>76</v>
@@ -5080,19 +5080,19 @@
         <v>50686</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40144</v>
+        <v>39803</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62627</v>
+        <v>63095</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06170909548995298</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04887519672099516</v>
+        <v>0.04845957879832351</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07624801828188847</v>
+        <v>0.07681790899711058</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>122</v>
@@ -5101,19 +5101,19 @@
         <v>91076</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75051</v>
+        <v>74918</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>108881</v>
+        <v>109687</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.0651494378083252</v>
+        <v>0.06514943780832519</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05368614434037584</v>
+        <v>0.05359068245529369</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07788533625546053</v>
+        <v>0.07846228533641689</v>
       </c>
     </row>
     <row r="7">
@@ -5205,19 +5205,19 @@
         <v>1732107</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1685172</v>
+        <v>1682293</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1775574</v>
+        <v>1775106</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7765325372669244</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.755490626608369</v>
+        <v>0.754200139889583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7960195220506705</v>
+        <v>0.7958094836436431</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2306</v>
@@ -5226,19 +5226,19 @@
         <v>1670518</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1631635</v>
+        <v>1632682</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1708623</v>
+        <v>1706782</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7696566823316012</v>
+        <v>0.7696566823316013</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.751742238154003</v>
+        <v>0.752224781965301</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7872129945358433</v>
+        <v>0.786364978745751</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3853</v>
@@ -5247,19 +5247,19 @@
         <v>3402625</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3342758</v>
+        <v>3340392</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3460755</v>
+        <v>3455682</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7731415539945143</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.759538721015913</v>
+        <v>0.7590011870474055</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.786349865682944</v>
+        <v>0.7851972247604304</v>
       </c>
     </row>
     <row r="9">
@@ -5276,19 +5276,19 @@
         <v>397166</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>354773</v>
+        <v>358149</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>438906</v>
+        <v>444158</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1780559536207552</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1590504638203254</v>
+        <v>0.160564143350834</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1967687377130697</v>
+        <v>0.1991232557043732</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>469</v>
@@ -5297,19 +5297,19 @@
         <v>375873</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>341299</v>
+        <v>343087</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>411765</v>
+        <v>411695</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1731758216107267</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1572466552053688</v>
+        <v>0.1580700741681947</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1897124813407702</v>
+        <v>0.1896800096924846</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>822</v>
@@ -5318,19 +5318,19 @@
         <v>773039</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>724455</v>
+        <v>724958</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>827996</v>
+        <v>826846</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1756492062171493</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1646100983253177</v>
+        <v>0.1647243270859317</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1881365037015516</v>
+        <v>0.1878753303695281</v>
       </c>
     </row>
     <row r="10">
@@ -5347,19 +5347,19 @@
         <v>101293</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83093</v>
+        <v>82629</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>127605</v>
+        <v>125943</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04541150911232044</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03725191499225684</v>
+        <v>0.03704381302676327</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05720742208166596</v>
+        <v>0.05646236805830383</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -5368,19 +5368,19 @@
         <v>124080</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>105243</v>
+        <v>103998</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>147883</v>
+        <v>146366</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05716749605767192</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04848876981179275</v>
+        <v>0.04791491735648765</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06813396280289162</v>
+        <v>0.06743500127905225</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>237</v>
@@ -5389,19 +5389,19 @@
         <v>225374</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>195800</v>
+        <v>196222</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>258839</v>
+        <v>254742</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05120923978833641</v>
+        <v>0.05120923978833639</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04448948128260517</v>
+        <v>0.04458534022757819</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05881320255930036</v>
+        <v>0.05788227924027658</v>
       </c>
     </row>
     <row r="11">
@@ -5493,19 +5493,19 @@
         <v>518658</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>492924</v>
+        <v>489530</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>544408</v>
+        <v>541958</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7288749860185125</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6927105518939032</v>
+        <v>0.6879416696601346</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7650611026003816</v>
+        <v>0.7616193093520573</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>744</v>
@@ -5514,19 +5514,19 @@
         <v>537460</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>514405</v>
+        <v>515399</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>557434</v>
+        <v>557402</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7327870211470916</v>
+        <v>0.7327870211470917</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.701353547187566</v>
+        <v>0.7027082972203108</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7600208488076861</v>
+        <v>0.7599763585346963</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1246</v>
@@ -5535,19 +5535,19 @@
         <v>1056118</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1025240</v>
+        <v>1019747</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1093438</v>
+        <v>1089800</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7308605917688535</v>
+        <v>0.7308605917688534</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.709492206313326</v>
+        <v>0.7056912767771862</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7566868973148733</v>
+        <v>0.7541696769560156</v>
       </c>
     </row>
     <row r="13">
@@ -5564,19 +5564,19 @@
         <v>154449</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>131210</v>
+        <v>134138</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>179605</v>
+        <v>180865</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2170480139422816</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1843910383109375</v>
+        <v>0.1885054959559726</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2524011268374919</v>
+        <v>0.2541710479070165</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>181</v>
@@ -5585,19 +5585,19 @@
         <v>139391</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122220</v>
+        <v>120961</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>160236</v>
+        <v>159070</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1900487716107822</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1666374253992939</v>
+        <v>0.1649214016752514</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2184699767142485</v>
+        <v>0.216880215920807</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>322</v>
@@ -5606,19 +5606,19 @@
         <v>293839</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>259670</v>
+        <v>262003</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>323119</v>
+        <v>327462</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2033441874002772</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1796984827450734</v>
+        <v>0.1813127668212842</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2236063923248647</v>
+        <v>0.2266123454038332</v>
       </c>
     </row>
     <row r="14">
@@ -5635,19 +5635,19 @@
         <v>38480</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25901</v>
+        <v>27437</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53142</v>
+        <v>53965</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05407700003920585</v>
+        <v>0.05407700003920583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03639830009027556</v>
+        <v>0.03855770283272947</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07468092390757686</v>
+        <v>0.07583733699613457</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -5656,19 +5656,19 @@
         <v>56596</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44609</v>
+        <v>46133</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70547</v>
+        <v>69967</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07716420724212621</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06082078085120113</v>
+        <v>0.06289849152055509</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09618519883214349</v>
+        <v>0.09539444094827597</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>115</v>
@@ -5677,19 +5677,19 @@
         <v>95076</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79228</v>
+        <v>77750</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>112905</v>
+        <v>113472</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06579522083086929</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05482809259263139</v>
+        <v>0.05380498922172355</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07813289796384726</v>
+        <v>0.07852588516380632</v>
       </c>
     </row>
     <row r="15">
@@ -5781,19 +5781,19 @@
         <v>2705209</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2646701</v>
+        <v>2655649</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2760000</v>
+        <v>2758051</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7687978997039799</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.75217036729968</v>
+        <v>0.7547132927536805</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7843690329847451</v>
+        <v>0.7838151833350705</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4197</v>
@@ -5802,19 +5802,19 @@
         <v>2853199</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2804159</v>
+        <v>2807254</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2900856</v>
+        <v>2903733</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.765902019104868</v>
+        <v>0.7659020191048681</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7527378367519646</v>
+        <v>0.753568608662524</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7786948274197351</v>
+        <v>0.7794670868054284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6793</v>
@@ -5823,19 +5823,19 @@
         <v>5558408</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5485802</v>
+        <v>5488739</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5626585</v>
+        <v>5625988</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7673086785430685</v>
+        <v>0.7673086785430686</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7572857886597182</v>
+        <v>0.7576911978587514</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7767201134468122</v>
+        <v>0.7766377266863497</v>
       </c>
     </row>
     <row r="17">
@@ -5852,19 +5852,19 @@
         <v>633378</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>578988</v>
+        <v>581826</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>684712</v>
+        <v>682853</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1800007885700388</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1645437054473604</v>
+        <v>0.1653502197551809</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1945894746365595</v>
+        <v>0.1940611640019917</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>853</v>
@@ -5873,19 +5873,19 @@
         <v>640719</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>599235</v>
+        <v>597382</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>686937</v>
+        <v>681870</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1719921165516771</v>
+        <v>0.1719921165516772</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.160856417361551</v>
+        <v>0.1603590337759047</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1843987644517496</v>
+        <v>0.1830385582032772</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1443</v>
@@ -5894,19 +5894,19 @@
         <v>1274097</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1212557</v>
+        <v>1214534</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1338672</v>
+        <v>1343702</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1758822887105487</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1673870417697756</v>
+        <v>0.1676599232636993</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1847965625363756</v>
+        <v>0.185490920627627</v>
       </c>
     </row>
     <row r="18">
@@ -5923,19 +5923,19 @@
         <v>180165</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>154725</v>
+        <v>154210</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>212291</v>
+        <v>209023</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05120131172598128</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04397148205058025</v>
+        <v>0.04382507048066537</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06033123757384594</v>
+        <v>0.05940271995705462</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>298</v>
@@ -5944,19 +5944,19 @@
         <v>231362</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>206968</v>
+        <v>204800</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>261321</v>
+        <v>260244</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.06210586434345485</v>
+        <v>0.06210586434345487</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05555765338131461</v>
+        <v>0.05497562649297233</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07014808265184581</v>
+        <v>0.06985898450848778</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>474</v>
@@ -5965,19 +5965,19 @@
         <v>411526</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>375558</v>
+        <v>372544</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>455824</v>
+        <v>450659</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.05680903274638274</v>
+        <v>0.05680903274638273</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05184385484363012</v>
+        <v>0.05142769207104774</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06292402804009224</v>
+        <v>0.06221109824346836</v>
       </c>
     </row>
     <row r="19">
